--- a/biology/Histoire de la zoologie et de la botanique/Jean-Claude-Michel_Mordant_de_Launay/Jean-Claude-Michel_Mordant_de_Launay.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Claude-Michel_Mordant_de_Launay/Jean-Claude-Michel_Mordant_de_Launay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Claude-Michel Mordant de Launay (né le 27 mars 1750 à Paris et mort le 13 mars 1816 au Havre[1]) fut un naturaliste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Claude-Michel Mordant de Launay (né le 27 mars 1750 à Paris et mort le 13 mars 1816 au Havre) fut un naturaliste français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fit ses études de droit, devint avocat puis s'occupa de sciences.
 Le citoyen Mordant-Delaunay était sous-bibliothécaire du Muséum national d'histoire naturelle, lorsque la bibliothèque du Muséum ouvrit au public le 7 septembre 1794. 
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il publia plusieurs ouvrages :
 Le Bon Jardinier, almanach qu'il édita chaque année à partir de 1804,
